--- a/_data/ICPUSDT_2h.xlsx
+++ b/_data/ICPUSDT_2h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1168"/>
+  <dimension ref="A1:F1241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23761,6 +23761,1466 @@
         <v>12762.48</v>
       </c>
     </row>
+    <row r="1169" spans="1:6">
+      <c r="A1169" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1169">
+        <v>7.752</v>
+      </c>
+      <c r="C1169">
+        <v>7.86</v>
+      </c>
+      <c r="D1169">
+        <v>7.644</v>
+      </c>
+      <c r="E1169">
+        <v>7.759</v>
+      </c>
+      <c r="F1169">
+        <v>181530.37</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6">
+      <c r="A1170" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="B1170">
+        <v>7.767</v>
+      </c>
+      <c r="C1170">
+        <v>7.824</v>
+      </c>
+      <c r="D1170">
+        <v>7.383</v>
+      </c>
+      <c r="E1170">
+        <v>7.415</v>
+      </c>
+      <c r="F1170">
+        <v>349549.84</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6">
+      <c r="A1171" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1171">
+        <v>7.419</v>
+      </c>
+      <c r="C1171">
+        <v>7.489</v>
+      </c>
+      <c r="D1171">
+        <v>7.336</v>
+      </c>
+      <c r="E1171">
+        <v>7.439</v>
+      </c>
+      <c r="F1171">
+        <v>221138.81</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6">
+      <c r="A1172" s="2">
+        <v>45534.75</v>
+      </c>
+      <c r="B1172">
+        <v>7.441</v>
+      </c>
+      <c r="C1172">
+        <v>7.62</v>
+      </c>
+      <c r="D1172">
+        <v>7.423</v>
+      </c>
+      <c r="E1172">
+        <v>7.537</v>
+      </c>
+      <c r="F1172">
+        <v>131897.86</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6">
+      <c r="A1173" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1173">
+        <v>7.533</v>
+      </c>
+      <c r="C1173">
+        <v>7.599</v>
+      </c>
+      <c r="D1173">
+        <v>7.52</v>
+      </c>
+      <c r="E1173">
+        <v>7.582</v>
+      </c>
+      <c r="F1173">
+        <v>42539.73</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6">
+      <c r="A1174" s="2">
+        <v>45534.91666666666</v>
+      </c>
+      <c r="B1174">
+        <v>7.585</v>
+      </c>
+      <c r="C1174">
+        <v>7.656</v>
+      </c>
+      <c r="D1174">
+        <v>7.581</v>
+      </c>
+      <c r="E1174">
+        <v>7.617</v>
+      </c>
+      <c r="F1174">
+        <v>70244.44</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6">
+      <c r="A1175" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1175">
+        <v>7.618</v>
+      </c>
+      <c r="C1175">
+        <v>7.668</v>
+      </c>
+      <c r="D1175">
+        <v>7.595</v>
+      </c>
+      <c r="E1175">
+        <v>7.627</v>
+      </c>
+      <c r="F1175">
+        <v>100875.78</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6">
+      <c r="A1176" s="2">
+        <v>45535.08333333334</v>
+      </c>
+      <c r="B1176">
+        <v>7.626</v>
+      </c>
+      <c r="C1176">
+        <v>7.679</v>
+      </c>
+      <c r="D1176">
+        <v>7.622</v>
+      </c>
+      <c r="E1176">
+        <v>7.654</v>
+      </c>
+      <c r="F1176">
+        <v>73785.12</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6">
+      <c r="A1177" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1177">
+        <v>7.654</v>
+      </c>
+      <c r="C1177">
+        <v>7.722</v>
+      </c>
+      <c r="D1177">
+        <v>7.654</v>
+      </c>
+      <c r="E1177">
+        <v>7.66</v>
+      </c>
+      <c r="F1177">
+        <v>63851.77</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6">
+      <c r="A1178" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="B1178">
+        <v>7.66</v>
+      </c>
+      <c r="C1178">
+        <v>7.699</v>
+      </c>
+      <c r="D1178">
+        <v>7.611</v>
+      </c>
+      <c r="E1178">
+        <v>7.618</v>
+      </c>
+      <c r="F1178">
+        <v>51698.88</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6">
+      <c r="A1179" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1179">
+        <v>7.618</v>
+      </c>
+      <c r="C1179">
+        <v>7.631</v>
+      </c>
+      <c r="D1179">
+        <v>7.519</v>
+      </c>
+      <c r="E1179">
+        <v>7.523</v>
+      </c>
+      <c r="F1179">
+        <v>87657.78</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6">
+      <c r="A1180" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="B1180">
+        <v>7.512</v>
+      </c>
+      <c r="C1180">
+        <v>7.58</v>
+      </c>
+      <c r="D1180">
+        <v>7.503</v>
+      </c>
+      <c r="E1180">
+        <v>7.537</v>
+      </c>
+      <c r="F1180">
+        <v>85213.53</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6">
+      <c r="A1181" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1181">
+        <v>7.54</v>
+      </c>
+      <c r="C1181">
+        <v>7.558</v>
+      </c>
+      <c r="D1181">
+        <v>7.461</v>
+      </c>
+      <c r="E1181">
+        <v>7.462</v>
+      </c>
+      <c r="F1181">
+        <v>50753.53</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6">
+      <c r="A1182" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="B1182">
+        <v>7.46</v>
+      </c>
+      <c r="C1182">
+        <v>7.539</v>
+      </c>
+      <c r="D1182">
+        <v>7.457</v>
+      </c>
+      <c r="E1182">
+        <v>7.537</v>
+      </c>
+      <c r="F1182">
+        <v>49009.9</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6">
+      <c r="A1183" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1183">
+        <v>7.537</v>
+      </c>
+      <c r="C1183">
+        <v>7.538</v>
+      </c>
+      <c r="D1183">
+        <v>7.435</v>
+      </c>
+      <c r="E1183">
+        <v>7.493</v>
+      </c>
+      <c r="F1183">
+        <v>41519.26</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6">
+      <c r="A1184" s="2">
+        <v>45535.75</v>
+      </c>
+      <c r="B1184">
+        <v>7.493</v>
+      </c>
+      <c r="C1184">
+        <v>7.562</v>
+      </c>
+      <c r="D1184">
+        <v>7.478</v>
+      </c>
+      <c r="E1184">
+        <v>7.5</v>
+      </c>
+      <c r="F1184">
+        <v>47406.04</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6">
+      <c r="A1185" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1185">
+        <v>7.501</v>
+      </c>
+      <c r="C1185">
+        <v>7.53</v>
+      </c>
+      <c r="D1185">
+        <v>7.487</v>
+      </c>
+      <c r="E1185">
+        <v>7.523</v>
+      </c>
+      <c r="F1185">
+        <v>17235.76</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6">
+      <c r="A1186" s="2">
+        <v>45535.91666666666</v>
+      </c>
+      <c r="B1186">
+        <v>7.55</v>
+      </c>
+      <c r="C1186">
+        <v>7.576</v>
+      </c>
+      <c r="D1186">
+        <v>7.536</v>
+      </c>
+      <c r="E1186">
+        <v>7.548</v>
+      </c>
+      <c r="F1186">
+        <v>7388.96</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6">
+      <c r="A1187" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1187">
+        <v>7.56</v>
+      </c>
+      <c r="C1187">
+        <v>7.583</v>
+      </c>
+      <c r="D1187">
+        <v>7.453</v>
+      </c>
+      <c r="E1187">
+        <v>7.454</v>
+      </c>
+      <c r="F1187">
+        <v>40674.37</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6">
+      <c r="A1188" s="2">
+        <v>45536.08333333334</v>
+      </c>
+      <c r="B1188">
+        <v>7.455</v>
+      </c>
+      <c r="C1188">
+        <v>7.487</v>
+      </c>
+      <c r="D1188">
+        <v>7.41</v>
+      </c>
+      <c r="E1188">
+        <v>7.481</v>
+      </c>
+      <c r="F1188">
+        <v>44923.04</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6">
+      <c r="A1189" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1189">
+        <v>7.482</v>
+      </c>
+      <c r="C1189">
+        <v>7.497</v>
+      </c>
+      <c r="D1189">
+        <v>7.351</v>
+      </c>
+      <c r="E1189">
+        <v>7.367</v>
+      </c>
+      <c r="F1189">
+        <v>61923.62</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6">
+      <c r="A1190" s="2">
+        <v>45536.25</v>
+      </c>
+      <c r="B1190">
+        <v>7.365</v>
+      </c>
+      <c r="C1190">
+        <v>7.441</v>
+      </c>
+      <c r="D1190">
+        <v>7.351</v>
+      </c>
+      <c r="E1190">
+        <v>7.436</v>
+      </c>
+      <c r="F1190">
+        <v>57890.3</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6">
+      <c r="A1191" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1191">
+        <v>7.437</v>
+      </c>
+      <c r="C1191">
+        <v>7.449</v>
+      </c>
+      <c r="D1191">
+        <v>7.352</v>
+      </c>
+      <c r="E1191">
+        <v>7.354</v>
+      </c>
+      <c r="F1191">
+        <v>41074.14</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6">
+      <c r="A1192" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="B1192">
+        <v>7.357</v>
+      </c>
+      <c r="C1192">
+        <v>7.363</v>
+      </c>
+      <c r="D1192">
+        <v>7.286</v>
+      </c>
+      <c r="E1192">
+        <v>7.357</v>
+      </c>
+      <c r="F1192">
+        <v>124859.17</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6">
+      <c r="A1193" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1193">
+        <v>7.359</v>
+      </c>
+      <c r="C1193">
+        <v>7.373</v>
+      </c>
+      <c r="D1193">
+        <v>7.258</v>
+      </c>
+      <c r="E1193">
+        <v>7.314</v>
+      </c>
+      <c r="F1193">
+        <v>65197.76</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6">
+      <c r="A1194" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="B1194">
+        <v>7.315</v>
+      </c>
+      <c r="C1194">
+        <v>7.436</v>
+      </c>
+      <c r="D1194">
+        <v>7.189</v>
+      </c>
+      <c r="E1194">
+        <v>7.402</v>
+      </c>
+      <c r="F1194">
+        <v>98533.97</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6">
+      <c r="A1195" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1195">
+        <v>7.404</v>
+      </c>
+      <c r="C1195">
+        <v>7.435</v>
+      </c>
+      <c r="D1195">
+        <v>7.245</v>
+      </c>
+      <c r="E1195">
+        <v>7.297</v>
+      </c>
+      <c r="F1195">
+        <v>82629.75999999999</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6">
+      <c r="A1196" s="2">
+        <v>45536.75</v>
+      </c>
+      <c r="B1196">
+        <v>7.296</v>
+      </c>
+      <c r="C1196">
+        <v>7.451</v>
+      </c>
+      <c r="D1196">
+        <v>7.272</v>
+      </c>
+      <c r="E1196">
+        <v>7.43</v>
+      </c>
+      <c r="F1196">
+        <v>103607.69</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6">
+      <c r="A1197" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1197">
+        <v>7.425</v>
+      </c>
+      <c r="C1197">
+        <v>7.462</v>
+      </c>
+      <c r="D1197">
+        <v>7.32</v>
+      </c>
+      <c r="E1197">
+        <v>7.352</v>
+      </c>
+      <c r="F1197">
+        <v>28663.61</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6">
+      <c r="A1198" s="2">
+        <v>45536.91666666666</v>
+      </c>
+      <c r="B1198">
+        <v>7.348</v>
+      </c>
+      <c r="C1198">
+        <v>7.361</v>
+      </c>
+      <c r="D1198">
+        <v>7.087</v>
+      </c>
+      <c r="E1198">
+        <v>7.191</v>
+      </c>
+      <c r="F1198">
+        <v>178476.37</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6">
+      <c r="A1199" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1199">
+        <v>7.184</v>
+      </c>
+      <c r="C1199">
+        <v>7.241</v>
+      </c>
+      <c r="D1199">
+        <v>7.131</v>
+      </c>
+      <c r="E1199">
+        <v>7.189</v>
+      </c>
+      <c r="F1199">
+        <v>104285.05</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6">
+      <c r="A1200" s="2">
+        <v>45537.08333333334</v>
+      </c>
+      <c r="B1200">
+        <v>7.192</v>
+      </c>
+      <c r="C1200">
+        <v>7.24</v>
+      </c>
+      <c r="D1200">
+        <v>7.162</v>
+      </c>
+      <c r="E1200">
+        <v>7.224</v>
+      </c>
+      <c r="F1200">
+        <v>54002.21</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6">
+      <c r="A1201" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1201">
+        <v>7.225</v>
+      </c>
+      <c r="C1201">
+        <v>7.311</v>
+      </c>
+      <c r="D1201">
+        <v>7.176</v>
+      </c>
+      <c r="E1201">
+        <v>7.276</v>
+      </c>
+      <c r="F1201">
+        <v>56550.87</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6">
+      <c r="A1202" s="2">
+        <v>45537.25</v>
+      </c>
+      <c r="B1202">
+        <v>7.275</v>
+      </c>
+      <c r="C1202">
+        <v>7.302</v>
+      </c>
+      <c r="D1202">
+        <v>7.115</v>
+      </c>
+      <c r="E1202">
+        <v>7.146</v>
+      </c>
+      <c r="F1202">
+        <v>100812.48</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6">
+      <c r="A1203" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1203">
+        <v>7.145</v>
+      </c>
+      <c r="C1203">
+        <v>7.343</v>
+      </c>
+      <c r="D1203">
+        <v>7.144</v>
+      </c>
+      <c r="E1203">
+        <v>7.331</v>
+      </c>
+      <c r="F1203">
+        <v>176690.48</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6">
+      <c r="A1204" s="2">
+        <v>45537.41666666666</v>
+      </c>
+      <c r="B1204">
+        <v>7.327</v>
+      </c>
+      <c r="C1204">
+        <v>7.427</v>
+      </c>
+      <c r="D1204">
+        <v>7.321</v>
+      </c>
+      <c r="E1204">
+        <v>7.36</v>
+      </c>
+      <c r="F1204">
+        <v>124424.3</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6">
+      <c r="A1205" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1205">
+        <v>7.363</v>
+      </c>
+      <c r="C1205">
+        <v>7.38</v>
+      </c>
+      <c r="D1205">
+        <v>7.309</v>
+      </c>
+      <c r="E1205">
+        <v>7.32</v>
+      </c>
+      <c r="F1205">
+        <v>23494.28</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6">
+      <c r="A1206" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="B1206">
+        <v>7.293</v>
+      </c>
+      <c r="C1206">
+        <v>7.429</v>
+      </c>
+      <c r="D1206">
+        <v>7.238</v>
+      </c>
+      <c r="E1206">
+        <v>7.391</v>
+      </c>
+      <c r="F1206">
+        <v>140178.77</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6">
+      <c r="A1207" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1207">
+        <v>7.391</v>
+      </c>
+      <c r="C1207">
+        <v>7.435</v>
+      </c>
+      <c r="D1207">
+        <v>7.342</v>
+      </c>
+      <c r="E1207">
+        <v>7.399</v>
+      </c>
+      <c r="F1207">
+        <v>94488.92</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6">
+      <c r="A1208" s="2">
+        <v>45537.75</v>
+      </c>
+      <c r="B1208">
+        <v>7.397</v>
+      </c>
+      <c r="C1208">
+        <v>7.427</v>
+      </c>
+      <c r="D1208">
+        <v>7.363</v>
+      </c>
+      <c r="E1208">
+        <v>7.387</v>
+      </c>
+      <c r="F1208">
+        <v>46983.78</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6">
+      <c r="A1209" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1209">
+        <v>7.393</v>
+      </c>
+      <c r="C1209">
+        <v>7.511</v>
+      </c>
+      <c r="D1209">
+        <v>7.351</v>
+      </c>
+      <c r="E1209">
+        <v>7.445</v>
+      </c>
+      <c r="F1209">
+        <v>107823.35</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6">
+      <c r="A1210" s="2">
+        <v>45537.91666666666</v>
+      </c>
+      <c r="B1210">
+        <v>7.446</v>
+      </c>
+      <c r="C1210">
+        <v>7.552</v>
+      </c>
+      <c r="D1210">
+        <v>7.442</v>
+      </c>
+      <c r="E1210">
+        <v>7.521</v>
+      </c>
+      <c r="F1210">
+        <v>82835.38</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6">
+      <c r="A1211" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1211">
+        <v>7.524</v>
+      </c>
+      <c r="C1211">
+        <v>7.568</v>
+      </c>
+      <c r="D1211">
+        <v>7.493</v>
+      </c>
+      <c r="E1211">
+        <v>7.567</v>
+      </c>
+      <c r="F1211">
+        <v>95273.28999999999</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6">
+      <c r="A1212" s="2">
+        <v>45538.08333333334</v>
+      </c>
+      <c r="B1212">
+        <v>7.567</v>
+      </c>
+      <c r="C1212">
+        <v>7.645</v>
+      </c>
+      <c r="D1212">
+        <v>7.521</v>
+      </c>
+      <c r="E1212">
+        <v>7.534</v>
+      </c>
+      <c r="F1212">
+        <v>131912.49</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6">
+      <c r="A1213" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1213">
+        <v>7.533</v>
+      </c>
+      <c r="C1213">
+        <v>7.555</v>
+      </c>
+      <c r="D1213">
+        <v>7.47</v>
+      </c>
+      <c r="E1213">
+        <v>7.537</v>
+      </c>
+      <c r="F1213">
+        <v>46209.43</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6">
+      <c r="A1214" s="2">
+        <v>45538.25</v>
+      </c>
+      <c r="B1214">
+        <v>7.539</v>
+      </c>
+      <c r="C1214">
+        <v>7.54</v>
+      </c>
+      <c r="D1214">
+        <v>7.469</v>
+      </c>
+      <c r="E1214">
+        <v>7.518</v>
+      </c>
+      <c r="F1214">
+        <v>76489.03999999999</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6">
+      <c r="A1215" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1215">
+        <v>7.517</v>
+      </c>
+      <c r="C1215">
+        <v>7.543</v>
+      </c>
+      <c r="D1215">
+        <v>7.421</v>
+      </c>
+      <c r="E1215">
+        <v>7.43</v>
+      </c>
+      <c r="F1215">
+        <v>111298.34</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6">
+      <c r="A1216" s="2">
+        <v>45538.41666666666</v>
+      </c>
+      <c r="B1216">
+        <v>7.431</v>
+      </c>
+      <c r="C1216">
+        <v>7.488</v>
+      </c>
+      <c r="D1216">
+        <v>7.407</v>
+      </c>
+      <c r="E1216">
+        <v>7.475</v>
+      </c>
+      <c r="F1216">
+        <v>59323.11</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6">
+      <c r="A1217" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1217">
+        <v>7.47</v>
+      </c>
+      <c r="C1217">
+        <v>7.519</v>
+      </c>
+      <c r="D1217">
+        <v>7.282</v>
+      </c>
+      <c r="E1217">
+        <v>7.313</v>
+      </c>
+      <c r="F1217">
+        <v>133348.14</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6">
+      <c r="A1218" s="2">
+        <v>45538.58333333334</v>
+      </c>
+      <c r="B1218">
+        <v>7.314</v>
+      </c>
+      <c r="C1218">
+        <v>7.316</v>
+      </c>
+      <c r="D1218">
+        <v>7.149</v>
+      </c>
+      <c r="E1218">
+        <v>7.164</v>
+      </c>
+      <c r="F1218">
+        <v>198016.76</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6">
+      <c r="A1219" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1219">
+        <v>7.161</v>
+      </c>
+      <c r="C1219">
+        <v>7.259</v>
+      </c>
+      <c r="D1219">
+        <v>7.151</v>
+      </c>
+      <c r="E1219">
+        <v>7.22</v>
+      </c>
+      <c r="F1219">
+        <v>96049.97</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6">
+      <c r="A1220" s="2">
+        <v>45538.75</v>
+      </c>
+      <c r="B1220">
+        <v>7.22</v>
+      </c>
+      <c r="C1220">
+        <v>7.269</v>
+      </c>
+      <c r="D1220">
+        <v>7.173</v>
+      </c>
+      <c r="E1220">
+        <v>7.252</v>
+      </c>
+      <c r="F1220">
+        <v>39097.89</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6">
+      <c r="A1221" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1221">
+        <v>7.249</v>
+      </c>
+      <c r="C1221">
+        <v>7.293</v>
+      </c>
+      <c r="D1221">
+        <v>7.231</v>
+      </c>
+      <c r="E1221">
+        <v>7.257</v>
+      </c>
+      <c r="F1221">
+        <v>25104.14</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6">
+      <c r="A1222" s="2">
+        <v>45538.91666666666</v>
+      </c>
+      <c r="B1222">
+        <v>7.258</v>
+      </c>
+      <c r="C1222">
+        <v>7.269</v>
+      </c>
+      <c r="D1222">
+        <v>7.144</v>
+      </c>
+      <c r="E1222">
+        <v>7.162</v>
+      </c>
+      <c r="F1222">
+        <v>44306.53</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6">
+      <c r="A1223" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1223">
+        <v>7.158</v>
+      </c>
+      <c r="C1223">
+        <v>7.22</v>
+      </c>
+      <c r="D1223">
+        <v>6.9</v>
+      </c>
+      <c r="E1223">
+        <v>7.103</v>
+      </c>
+      <c r="F1223">
+        <v>331155.3</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6">
+      <c r="A1224" s="2">
+        <v>45539.08333333334</v>
+      </c>
+      <c r="B1224">
+        <v>7.102</v>
+      </c>
+      <c r="C1224">
+        <v>7.196</v>
+      </c>
+      <c r="D1224">
+        <v>7.086</v>
+      </c>
+      <c r="E1224">
+        <v>7.191</v>
+      </c>
+      <c r="F1224">
+        <v>104903.88</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6">
+      <c r="A1225" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1225">
+        <v>7.191</v>
+      </c>
+      <c r="C1225">
+        <v>7.23</v>
+      </c>
+      <c r="D1225">
+        <v>7.16</v>
+      </c>
+      <c r="E1225">
+        <v>7.179</v>
+      </c>
+      <c r="F1225">
+        <v>106549.64</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6">
+      <c r="A1226" s="2">
+        <v>45539.25</v>
+      </c>
+      <c r="B1226">
+        <v>7.178</v>
+      </c>
+      <c r="C1226">
+        <v>7.279</v>
+      </c>
+      <c r="D1226">
+        <v>7.166</v>
+      </c>
+      <c r="E1226">
+        <v>7.253</v>
+      </c>
+      <c r="F1226">
+        <v>128307.34</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6">
+      <c r="A1227" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1227">
+        <v>7.255</v>
+      </c>
+      <c r="C1227">
+        <v>7.31</v>
+      </c>
+      <c r="D1227">
+        <v>7.202</v>
+      </c>
+      <c r="E1227">
+        <v>7.234</v>
+      </c>
+      <c r="F1227">
+        <v>104384.55</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6">
+      <c r="A1228" s="2">
+        <v>45539.41666666666</v>
+      </c>
+      <c r="B1228">
+        <v>7.236</v>
+      </c>
+      <c r="C1228">
+        <v>7.255</v>
+      </c>
+      <c r="D1228">
+        <v>7.151</v>
+      </c>
+      <c r="E1228">
+        <v>7.217</v>
+      </c>
+      <c r="F1228">
+        <v>128333.2</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6">
+      <c r="A1229" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1229">
+        <v>7.216</v>
+      </c>
+      <c r="C1229">
+        <v>7.299</v>
+      </c>
+      <c r="D1229">
+        <v>7.171</v>
+      </c>
+      <c r="E1229">
+        <v>7.295</v>
+      </c>
+      <c r="F1229">
+        <v>147307.39</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6">
+      <c r="A1230" s="2">
+        <v>45539.58333333334</v>
+      </c>
+      <c r="B1230">
+        <v>7.294</v>
+      </c>
+      <c r="C1230">
+        <v>7.573</v>
+      </c>
+      <c r="D1230">
+        <v>7.234</v>
+      </c>
+      <c r="E1230">
+        <v>7.562</v>
+      </c>
+      <c r="F1230">
+        <v>344462.55</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6">
+      <c r="A1231" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1231">
+        <v>7.562</v>
+      </c>
+      <c r="C1231">
+        <v>7.76</v>
+      </c>
+      <c r="D1231">
+        <v>7.539</v>
+      </c>
+      <c r="E1231">
+        <v>7.62</v>
+      </c>
+      <c r="F1231">
+        <v>237266.55</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6">
+      <c r="A1232" s="2">
+        <v>45539.75</v>
+      </c>
+      <c r="B1232">
+        <v>7.621</v>
+      </c>
+      <c r="C1232">
+        <v>7.644</v>
+      </c>
+      <c r="D1232">
+        <v>7.522</v>
+      </c>
+      <c r="E1232">
+        <v>7.538</v>
+      </c>
+      <c r="F1232">
+        <v>83371.85000000001</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:6">
+      <c r="A1233" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1233">
+        <v>7.555</v>
+      </c>
+      <c r="C1233">
+        <v>7.657</v>
+      </c>
+      <c r="D1233">
+        <v>7.549</v>
+      </c>
+      <c r="E1233">
+        <v>7.647</v>
+      </c>
+      <c r="F1233">
+        <v>67344.97</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:6">
+      <c r="A1234" s="2">
+        <v>45539.91666666666</v>
+      </c>
+      <c r="B1234">
+        <v>7.647</v>
+      </c>
+      <c r="C1234">
+        <v>7.687</v>
+      </c>
+      <c r="D1234">
+        <v>7.554</v>
+      </c>
+      <c r="E1234">
+        <v>7.557</v>
+      </c>
+      <c r="F1234">
+        <v>96646.19</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:6">
+      <c r="A1235" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B1235">
+        <v>7.557</v>
+      </c>
+      <c r="C1235">
+        <v>7.645</v>
+      </c>
+      <c r="D1235">
+        <v>7.549</v>
+      </c>
+      <c r="E1235">
+        <v>7.626</v>
+      </c>
+      <c r="F1235">
+        <v>81664.10000000001</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:6">
+      <c r="A1236" s="2">
+        <v>45540.08333333334</v>
+      </c>
+      <c r="B1236">
+        <v>7.624</v>
+      </c>
+      <c r="C1236">
+        <v>7.64</v>
+      </c>
+      <c r="D1236">
+        <v>7.441</v>
+      </c>
+      <c r="E1236">
+        <v>7.466</v>
+      </c>
+      <c r="F1236">
+        <v>125382.61</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:6">
+      <c r="A1237" s="2">
+        <v>45540.16666666666</v>
+      </c>
+      <c r="B1237">
+        <v>7.466</v>
+      </c>
+      <c r="C1237">
+        <v>7.499</v>
+      </c>
+      <c r="D1237">
+        <v>7.387</v>
+      </c>
+      <c r="E1237">
+        <v>7.428</v>
+      </c>
+      <c r="F1237">
+        <v>283692.96</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:6">
+      <c r="A1238" s="2">
+        <v>45540.25</v>
+      </c>
+      <c r="B1238">
+        <v>7.426</v>
+      </c>
+      <c r="C1238">
+        <v>7.468</v>
+      </c>
+      <c r="D1238">
+        <v>7.362</v>
+      </c>
+      <c r="E1238">
+        <v>7.436</v>
+      </c>
+      <c r="F1238">
+        <v>110105.28</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:6">
+      <c r="A1239" s="2">
+        <v>45540.33333333334</v>
+      </c>
+      <c r="B1239">
+        <v>7.435</v>
+      </c>
+      <c r="C1239">
+        <v>7.464</v>
+      </c>
+      <c r="D1239">
+        <v>7.387</v>
+      </c>
+      <c r="E1239">
+        <v>7.41</v>
+      </c>
+      <c r="F1239">
+        <v>83340.89999999999</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:6">
+      <c r="A1240" s="2">
+        <v>45540.41666666666</v>
+      </c>
+      <c r="B1240">
+        <v>7.409</v>
+      </c>
+      <c r="C1240">
+        <v>7.437</v>
+      </c>
+      <c r="D1240">
+        <v>7.328</v>
+      </c>
+      <c r="E1240">
+        <v>7.333</v>
+      </c>
+      <c r="F1240">
+        <v>293616.86</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:6">
+      <c r="A1241" s="2">
+        <v>45540.5</v>
+      </c>
+      <c r="B1241">
+        <v>7.333</v>
+      </c>
+      <c r="C1241">
+        <v>7.335</v>
+      </c>
+      <c r="D1241">
+        <v>7.33</v>
+      </c>
+      <c r="E1241">
+        <v>7.333</v>
+      </c>
+      <c r="F1241">
+        <v>884.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
